--- a/src/test/resources/Loan_approvals.xlsx
+++ b/src/test/resources/Loan_approvals.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Load Approval" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Loan Approval" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DTI Rating" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="PITI Rating" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -213,7 +213,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.87"/>
@@ -10283,7 +10283,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.71"/>
@@ -11332,7 +11332,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.71"/>

--- a/src/test/resources/Loan_approvals.xlsx
+++ b/src/test/resources/Loan_approvals.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t xml:space="preserve">FICO Score</t>
   </si>
@@ -42,16 +42,10 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">“Not approved insufficient credit score”</t>
+    <t xml:space="preserve">“Not approved”</t>
   </si>
   <si>
     <t xml:space="preserve">“Bad”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Not approved because bad DTI”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Not approved because bad PITI”</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;750</t>
@@ -210,10 +204,10 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.87"/>
@@ -268,7 +262,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -286,7 +280,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -295,16 +289,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -10283,7 +10277,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.71"/>
@@ -10291,7 +10285,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -10299,15 +10293,15 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -11332,7 +11326,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.71"/>
@@ -11340,7 +11334,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -11348,15 +11342,15 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
